--- a/code/band/calc.xlsx
+++ b/code/band/calc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Storage\_209\Filters\Band\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Code\Git\Projects\filters\magnemite\code\band\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -79,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -122,10 +122,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -437,7 +437,7 @@
       </c>
       <c r="E1" s="4">
         <f>(2*PI()*B1)/$B$7</f>
-        <v>0.1944795452222253</v>
+        <v>0.14585965891666897</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>14</v>
@@ -456,21 +456,21 @@
       </c>
       <c r="E2" s="4">
         <f t="shared" ref="E2:E4" si="0">(2*PI()*B2)/$B$7</f>
-        <v>8.9759790102565518E-2</v>
+        <v>6.7319842576924138E-2</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="5">
         <f>$E$6*($E$7-COS(E2))/SIN(E2)</f>
-        <v>-3.2001923800919241</v>
+        <v>-3.209825846344573</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
       </c>
       <c r="K2">
         <f>10*LOG10(1+(H2)^(2*$M$2))</f>
-        <v>30.314606550300567</v>
+        <v>30.392857332353827</v>
       </c>
       <c r="L2" t="b">
         <f>10*LOG10(1+(-H2)^(2*$M$2))&gt;=B6</f>
@@ -492,7 +492,7 @@
       </c>
       <c r="E3" s="4">
         <f t="shared" si="0"/>
-        <v>0.50863881058120464</v>
+        <v>0.38147910793590345</v>
       </c>
       <c r="H3" s="5"/>
     </row>
@@ -508,21 +508,21 @@
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0471975511965976</v>
+        <v>0.78539816339744828</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" ref="H3:H4" si="1">$E$6*($E$7-COS(E4))/SIN(E4)</f>
-        <v>3.2846558590686521</v>
+        <f t="shared" ref="H4" si="1">$E$6*($E$7-COS(E4))/SIN(E4)</f>
+        <v>3.1672480500703482</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
       </c>
       <c r="K4">
         <f>10*LOG10(1+(H4)^(2*$M$2))</f>
-        <v>30.992849238771491</v>
+        <v>30.04522472935248</v>
       </c>
       <c r="L4" t="b">
         <f>10*LOG10(1+(-H4)^(2*$M$2))&gt;=B6</f>
@@ -541,7 +541,7 @@
       </c>
       <c r="E6" s="4">
         <f>_xlfn.COT((E3-E1)/2)</f>
-        <v>6.3137515146750438</v>
+        <v>8.448957339821602</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -549,15 +549,15 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <f>2*3*B4</f>
-        <v>210</v>
+        <f>2*4*B4</f>
+        <v>280</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="4">
         <f>(COS((E3+E1)/2))/(COS((E3-E1)/2))</f>
-        <v>0.95053965301471921</v>
+        <v>0.97217884674770483</v>
       </c>
     </row>
   </sheetData>
